--- a/DaySale_2025-05-26_20-20.xlsx
+++ b/DaySale_2025-05-26_20-20.xlsx
@@ -209,6 +209,15 @@
     <t>47.0000</t>
   </si>
   <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
@@ -272,7 +281,13 @@
     <t>68.00</t>
   </si>
   <si>
-    <t>34.0000</t>
+    <t>JOINTGAURD 30 CAPS</t>
+  </si>
+  <si>
+    <t>199.00</t>
+  </si>
+  <si>
+    <t>65.6700</t>
   </si>
   <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
@@ -354,6 +369,12 @@
   </si>
   <si>
     <t>40.0000</t>
+  </si>
+  <si>
+    <t>RUMAXIMAP 90MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>51.4800</t>
   </si>
   <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
@@ -1621,7 +1642,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1631,14 +1652,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1647,14 +1668,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1687,7 +1708,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1697,14 +1718,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1720,7 +1741,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1730,14 +1751,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1753,7 +1774,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1786,7 +1807,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1803,7 +1824,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1852,7 +1873,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1866,10 +1887,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1878,14 +1899,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1895,14 +1916,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1911,14 +1932,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1928,14 +1949,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1944,14 +1965,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1961,14 +1982,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1977,14 +1998,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2027,11 +2048,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2043,14 +2064,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2060,11 +2081,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2076,14 +2097,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2093,11 +2114,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2109,7 +2130,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2126,11 +2147,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2142,14 +2163,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2159,14 +2180,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2175,14 +2196,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2192,11 +2213,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2208,31 +2229,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2241,14 +2262,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2258,14 +2279,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2274,14 +2295,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2291,11 +2312,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2307,7 +2328,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2320,15 +2341,15 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2340,14 +2361,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2357,14 +2378,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2373,14 +2394,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2390,11 +2411,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2406,14 +2427,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2423,14 +2444,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2439,31 +2460,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>146</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2472,28 +2493,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2505,31 +2526,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2538,31 +2559,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2571,31 +2592,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2604,31 +2625,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2637,66 +2658,165 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>160</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>18</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>129</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>158</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
         <v>20</v>
       </c>
-      <c t="s" r="Q53" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2816.0599999999999</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>158</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
-        <v>159</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
-        <v>160</v>
-      </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c t="s" r="Q54" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>161</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>18</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>129</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>162</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>164</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>21</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>129</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>19</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>2967.21</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>165</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
+        <v>166</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>167</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2940,10 +3060,25 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
